--- a/week7_classexs/top100songs.xlsx
+++ b/week7_classexs/top100songs.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wait For U</t>
+          <t>N95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Future Featuring Drake &amp; Tems</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moscow Mule</t>
+          <t>Wait For U</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Future Featuring Drake &amp; Tems</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Titi Me Pregunto</t>
+          <t>Die Hard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kendrick Lamar, Blxst &amp; Amanda Reifer</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Despues de La Playa</t>
+          <t>You Proof</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Morgan Wallen</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heat Waves</t>
+          <t>Silent Hill</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Glass Animals</t>
+          <t>Kendrick Lamar &amp; Kodak Black</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Big Energy</t>
+          <t>United In Grief</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Latto</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Me Porto Bonito</t>
+          <t>Big Energy</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Chencho Corleone</t>
+          <t>Latto</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Enemy</t>
+          <t>Father Time</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Imagine Dragons X JID</t>
+          <t>Kendrick Lamar Featuring Sampha</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thought You Should Know</t>
+          <t>Heat Waves</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Morgan Wallen</t>
+          <t>Glass Animals</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>Rich Spirit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The Kid LAROI &amp; Justin Bieber</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Party</t>
+          <t>Me Porto Bonito</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Rauw Alejandro</t>
+          <t>Bad Bunny &amp; Chencho Corleone</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Heart Part 5</t>
+          <t>Moscow Mule</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Un Ratito</t>
+          <t>We Cry Together</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kendrick Lamar &amp; Taylour Paige</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Enemy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>Imagine Dragons X JID</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tarot</t>
+          <t>Titi Me Pregunto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Jhay Cortez</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Puffin On Zootiez</t>
+          <t>Worldwide Steppers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Count Me Out</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dua Lipa</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>The Kid LAROI &amp; Justin Bieber</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yo No Soy Celoso</t>
+          <t>Purple Hearts</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kendrick Lamar, Summer Walker &amp; Ghostface Killah</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Churchill Downs</t>
+          <t>Savior</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jack Harlow Featuring Drake</t>
+          <t>Kendrick Lamar, Baby Keem, &amp; Sam Dew</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bad Habits</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>Doja Cat</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Super Gremlin</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kodak Black</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ojitos Lindos</t>
+          <t>Despues de La Playa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Bomba Estereo</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Provenza</t>
+          <t>Party</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Karol G</t>
+          <t>Bad Bunny &amp; Rauw Alejandro</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thats What I Want</t>
+          <t>Wasted On You</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lil Nas X</t>
+          <t>Morgan Wallen</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shivers</t>
+          <t>Cooped Up</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>Post Malone Featuring Roddy Ricch</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cold Heart (PNAU Remix)</t>
+          <t>Bad Habits</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Elton John &amp; Dua Lipa</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Neverita</t>
+          <t>Puffin On Zootiez</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Future</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>La Corriente</t>
+          <t>Super Gremlin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Tony Dize</t>
+          <t>Kodak Black</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wasted On You</t>
+          <t>Rich (Interlude)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Morgan Wallen</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Efecto</t>
+          <t>Thats What I Want</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Lil Nas X</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Boyfriend</t>
+          <t>Provenza</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dove Cameron</t>
+          <t>Karol G</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bam Bam</t>
+          <t>Boyfriend</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Camila Cabello Featuring Ed Sheeran</t>
+          <t>Dove Cameron</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>'Til You Can't</t>
+          <t>Shivers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cody Johnson</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAMIII</t>
+          <t>Cold Heart (PNAU Remix)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Becky G X Karol G</t>
+          <t>Elton John &amp; Dua Lipa</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sweetest Pie</t>
+          <t>Bam Bam</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Megan Thee Stallion &amp; Dua Lipa</t>
+          <t>Camila Cabello Featuring Ed Sheeran</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Mr. Morale</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Walker Hayes</t>
+          <t>Kendrick Lamar &amp; Tanna Leone</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>abcdefu</t>
+          <t>Crown</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GAYLE</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Industry Baby</t>
+          <t>Numb Little Bug</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lil Nas X &amp; Jack Harlow</t>
+          <t>Em Beihold</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Numb Little Bug</t>
+          <t>'Til You Can't</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Em Beihold</t>
+          <t>Cody Johnson</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aguacero</t>
+          <t>MAMIII</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Becky G X Karol G</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dos Mil 16</t>
+          <t>Sweetest Pie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Megan Thee Stallion &amp; Dua Lipa</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Easy On Me</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Adele</t>
+          <t>Walker Hayes</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Need To Know</t>
+          <t>Auntie Diaries</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Otro Atardecer</t>
+          <t>Ojitos Lindos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; The Marias</t>
+          <t>Bad Bunny &amp; Bomba Estereo</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>This Love (Taylor's Version)</t>
+          <t>Thought You Should Know</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>Morgan Wallen</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Savior (Interlude)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bad Bunny &amp; Buscabulla</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Doin' This</t>
+          <t>Tarot</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Luke Combs</t>
+          <t>Bad Bunny &amp; Jhay Cortez</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>In A Minute</t>
+          <t>Un Ratito</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lil Baby</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>El Apagon</t>
+          <t>Doin' This</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Luke Combs</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Un Verano Sin Ti</t>
+          <t>Mirror</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Un Coco</t>
+          <t>Take My Name</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Parmalee</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>To The Moon!</t>
+          <t>Thousand Miles</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JNR CHOI &amp; Sam Tompkins</t>
+          <t>The Kid LAROI</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Thousand Miles</t>
+          <t>To The Moon!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The Kid LAROI</t>
+          <t>JNR CHOI &amp; Sam Tompkins</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Me Fui de Vacaciones</t>
+          <t>Mother I Sober</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kendrick Lamar Featuring Beth Gibbons</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ensename A Bailar</t>
+          <t>In A Minute</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Lil Baby</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Love You Better</t>
+          <t>Yo No Soy Celoso</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hrs And Hrs</t>
+          <t>Damn Strait</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Muni Long</t>
+          <t>Scotty McCreery</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>I'm On One</t>
+          <t>Dua Lipa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Future Featuring Drake</t>
+          <t>Jack Harlow</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>712PM</t>
+          <t>She's All I Wanna Be</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Tate McRae</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nail Tech</t>
+          <t>Efecto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Take My Name</t>
+          <t>When You're Gone</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Parmalee</t>
+          <t>Shawn Mendes</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Never Say Never</t>
+          <t>Get Into It (Yuh)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cole Swindell / Lainey Wilson</t>
+          <t>Doja Cat</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>She's All I Wanna Be</t>
+          <t>Freaky Deaky</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tate McRae</t>
+          <t>Tyga X Doja Cat</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Right On</t>
+          <t>Neverita</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lil Baby</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>We Don't Talk About Bruno</t>
+          <t>2step</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carolina Gaitan, Mauro Castillo, Adassa, Rhenzy Feliz, Diane Guerrero, Stephanie Beatriz &amp; Encanto Cast</t>
+          <t>Ed Sheeran Featuring Lil Baby</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Damn Strait</t>
+          <t>Never Say Never</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Scotty McCreery</t>
+          <t>Cole Swindell / Lainey Wilson</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>When You're Gone</t>
+          <t>La Corriente</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Shawn Mendes</t>
+          <t>Bad Bunny &amp; Tony Dize</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>If I Was A Cowboy</t>
+          <t>What Happened To Virgil</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Miranda Lambert</t>
+          <t>Lil Durk Featuring Gunna</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Right On</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Lil Baby</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2step</t>
+          <t>Something In The Orange</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ed Sheeran Featuring Lil Baby</t>
+          <t>Zach Bryan</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Freaky Deaky</t>
+          <t>Slow Down Summer</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tyga X Doja Cat</t>
+          <t>Thomas Rhett</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Something In The Orange</t>
+          <t>The Heart Part 5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Zach Bryan</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What Happened To Virgil</t>
+          <t>Churchill Downs</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lil Durk Featuring Gunna</t>
+          <t>Jack Harlow Featuring Drake</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>I'm Dat N***a</t>
+          <t>Love You Better</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Never Wanted To Be That Girl</t>
+          <t>I'm On One</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Carly Pearce &amp; Ashley McBryde</t>
+          <t>Future Featuring Drake</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Get Into It (Yuh)</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Bad Bunny &amp; Buscabulla</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hold My Hand</t>
+          <t>Never Wanted To Be That Girl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t>Carly Pearce &amp; Ashley McBryde</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Slow Down Summer</t>
+          <t>Dos Mil 16</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thomas Rhett</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Whiskey On You</t>
+          <t>Flower Shops</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nate Smith</t>
+          <t>ERNEST Featuring Morgan Wallen</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Don't Think Jesus</t>
+          <t>Aguacero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Morgan Wallen</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>If I Was A Cowboy</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fireboy DML &amp; Ed Sheeran</t>
+          <t>Miranda Lambert</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Massaging Me</t>
+          <t>Otro Atardecer</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Bad Bunny &amp; The Marias</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I'd Do Anything To Make You Smile</t>
+          <t>Un Coco</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pushin P</t>
+          <t>El Apagon</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Gunna &amp; Future Featuring Young Thug</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Flower Shops</t>
+          <t>Pushin P</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ERNEST Featuring Morgan Wallen</t>
+          <t>Gunna &amp; Future Featuring Young Thug</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Beers On Me</t>
+          <t>Fall In Love</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Dierks Bentley, BRELAND &amp; HARDY</t>
+          <t>Bailey Zimmerman</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Flowers</t>
+          <t>712PM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lauren Spencer-Smith</t>
+          <t>Future</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fingers Crossed</t>
+          <t>Don't Think Jesus</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Lauren Spencer-Smith</t>
+          <t>Morgan Wallen</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The Motto</t>
+          <t>No Love</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tiesto &amp; Ava Max</t>
+          <t>Summer Walker &amp; SZA</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>The Motto</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lil Baby</t>
+          <t>Tiesto &amp; Ava Max</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Young Harleezy</t>
+          <t>Me Fui de Vacaciones</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Hold My Hand</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sam Hunt</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Ensename A Bailar</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jack Harlow Featuring Lil Wayne</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Honest</t>
+          <t>Flowers</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; Don Toliver</t>
+          <t>Lauren Spencer-Smith</t>
         </is>
       </c>
     </row>
